--- a/medicine/Pharmacie/Ivresse_mentale/Ivresse_mentale.xlsx
+++ b/medicine/Pharmacie/Ivresse_mentale/Ivresse_mentale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ivresse mentale, est un terme non reconnu au niveau scientifique et décrié par de nombreux médecins spécialisés en alcoologie[réf. nécessaire]. En anglais on désigne ce phénomène par l'expression: dry drunk. Il provient du milieu des centres de traitements des toxicomanies aux États-Unis.
 Le terme de syndrome d'ivresse mentale est utilisé chez les personnes ayant un problème de dépendance chimique et qui sont en voie de réhabilitation. Il consiste en une substitution de la substance psychotrope par une pensée ou un comportement obsessionnel. La personne se détache ainsi de ses affects par des comportements de recherche de plaisir et de fuite.
